--- a/DataFolder/Data.xlsx
+++ b/DataFolder/Data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\BankingProject\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>User Id</t>
   </si>
@@ -65,22 +65,12 @@
   </si>
   <si>
     <t>Vaish</t>
-  </si>
-  <si>
-    <t>dep,withd,</t>
-  </si>
-  <si>
-    <t>newacc,delacc</t>
-  </si>
-  <si>
-    <t>bal,custstat,mini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,14 +394,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -438,16 +428,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,11 +488,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>52254.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,20 +495,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -534,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>62347</v>
       </c>
@@ -544,11 +529,8 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>12944</v>
       </c>
@@ -559,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>26016</v>
       </c>
@@ -570,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43478</v>
       </c>
@@ -580,22 +562,16 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>80040</v>
       </c>
-      <c r="B6" t="n">
-        <v>94812.0</v>
+      <c r="B6">
+        <v>94812</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
